--- a/Evaluation/Comparison_Other_Tools/deepseek-r1-distill-llama-70b_code_smells_matrix.xlsx
+++ b/Evaluation/Comparison_Other_Tools/deepseek-r1-distill-llama-70b_code_smells_matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bramss/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bramss/Documents/ETS/PhD/Code_Smells_ML/Code_Smell_Detection/DSL/Spec4AI/Evaluation/Comparison_Other_Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B5B873-6270-C049-B672-44C946B0E2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD899A2-1BBA-BF46-8F13-A6435595FF1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4340" yWindow="500" windowWidth="24460" windowHeight="16300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1147,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1166,6 +1166,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1472,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="B246" sqref="B246"/>
+    <sheetView tabSelected="1" topLeftCell="C188" workbookViewId="0">
+      <selection activeCell="O192" sqref="O192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1491,7 +1494,7 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
